--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Datamatics Global Services Ltd/Pruned_Excel/Pruned_Balance-sheet_combined.xlsx
@@ -708,16 +708,16 @@
         <v>2.62</v>
       </c>
       <c r="H2">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I2">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J2">
         <v>2.62</v>
       </c>
       <c r="K2">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L2">
         <v>0.47</v>
@@ -741,7 +741,7 @@
         <v>3.6</v>
       </c>
       <c r="S2">
-        <v>5.8275</v>
+        <v>5.83</v>
       </c>
       <c r="T2">
         <v>25.22</v>
@@ -753,7 +753,7 @@
         <v>0.75</v>
       </c>
       <c r="W2">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X2">
         <v>0.74</v>
@@ -762,7 +762,7 @@
         <v>171.79</v>
       </c>
       <c r="Z2">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA2">
         <v>39.22</v>
@@ -774,7 +774,7 @@
         <v>8.630000000000001</v>
       </c>
       <c r="AD2">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE2">
         <v>51.14</v>
@@ -833,16 +833,16 @@
         <v>2.89</v>
       </c>
       <c r="H3">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I3">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J3">
         <v>2.89</v>
       </c>
       <c r="K3">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L3">
         <v>0.58</v>
@@ -878,7 +878,7 @@
         <v>0.9</v>
       </c>
       <c r="W3">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X3">
         <v>0.75</v>
@@ -887,7 +887,7 @@
         <v>182.67</v>
       </c>
       <c r="Z3">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA3">
         <v>42.53</v>
@@ -899,7 +899,7 @@
         <v>13.97</v>
       </c>
       <c r="AD3">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE3">
         <v>59.87</v>
@@ -958,16 +958,16 @@
         <v>3.33</v>
       </c>
       <c r="H4">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I4">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J4">
         <v>3.33</v>
       </c>
       <c r="K4">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L4">
         <v>0.37</v>
@@ -1003,16 +1003,16 @@
         <v>0.9</v>
       </c>
       <c r="W4">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X4">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y4">
         <v>199.29</v>
       </c>
       <c r="Z4">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA4">
         <v>41.89</v>
@@ -1024,7 +1024,7 @@
         <v>6.97</v>
       </c>
       <c r="AD4">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE4">
         <v>55.5</v>
@@ -1083,16 +1083,16 @@
         <v>4.15</v>
       </c>
       <c r="H5">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I5">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J5">
         <v>4.15</v>
       </c>
       <c r="K5">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L5">
         <v>0.44</v>
@@ -1128,16 +1128,16 @@
         <v>0.87</v>
       </c>
       <c r="W5">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X5">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y5">
         <v>212.75</v>
       </c>
       <c r="Z5">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA5">
         <v>39.23</v>
@@ -1149,7 +1149,7 @@
         <v>12.22</v>
       </c>
       <c r="AD5">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE5">
         <v>52.9</v>
@@ -1208,10 +1208,10 @@
         <v>3.67</v>
       </c>
       <c r="H6">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I6">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J6">
         <v>3.67</v>
@@ -1253,16 +1253,16 @@
         <v>2.01</v>
       </c>
       <c r="W6">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X6">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y6">
         <v>240.66</v>
       </c>
       <c r="Z6">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA6">
         <v>40.77</v>
@@ -1274,7 +1274,7 @@
         <v>63.21</v>
       </c>
       <c r="AD6">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE6">
         <v>117.61</v>
@@ -1333,10 +1333,10 @@
         <v>1.49</v>
       </c>
       <c r="H7">
-        <v>3.049285714285714</v>
+        <v>3.05</v>
       </c>
       <c r="I7">
-        <v>12.35857142857143</v>
+        <v>12.36</v>
       </c>
       <c r="J7">
         <v>1.49</v>
@@ -1375,19 +1375,19 @@
         <v>132.1</v>
       </c>
       <c r="V7">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W7">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X7">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y7">
         <v>211.12</v>
       </c>
       <c r="Z7">
-        <v>53.95642857142856</v>
+        <v>53.96</v>
       </c>
       <c r="AA7">
         <v>32.35</v>
@@ -1399,7 +1399,7 @@
         <v>82.20999999999999</v>
       </c>
       <c r="AD7">
-        <v>50.60571428571428</v>
+        <v>50.61</v>
       </c>
       <c r="AE7">
         <v>120.94</v>
@@ -1500,13 +1500,13 @@
         <v>115.25</v>
       </c>
       <c r="V8">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W8">
         <v>13.33</v>
       </c>
       <c r="X8">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y8">
         <v>215.38</v>
@@ -1625,13 +1625,13 @@
         <v>176.17</v>
       </c>
       <c r="V9">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W9">
         <v>26.29</v>
       </c>
       <c r="X9">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y9">
         <v>311.85</v>
@@ -1750,7 +1750,7 @@
         <v>163.17</v>
       </c>
       <c r="V10">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W10">
         <v>28.04</v>
@@ -1875,7 +1875,7 @@
         <v>261.48</v>
       </c>
       <c r="V11">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W11">
         <v>30.92</v>
@@ -1955,7 +1955,7 @@
         <v>415.67</v>
       </c>
       <c r="G12">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H12">
         <v>0.05</v>
@@ -2125,13 +2125,13 @@
         <v>268.49</v>
       </c>
       <c r="V13">
-        <v>11.60142857142857</v>
+        <v>11.6</v>
       </c>
       <c r="W13">
         <v>26.26</v>
       </c>
       <c r="X13">
-        <v>14.05692307692308</v>
+        <v>14.06</v>
       </c>
       <c r="Y13">
         <v>413.11</v>
@@ -2205,7 +2205,7 @@
         <v>419.32</v>
       </c>
       <c r="G14">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H14">
         <v>2.05</v>
@@ -2286,7 +2286,7 @@
         <v>37.4</v>
       </c>
       <c r="AH14">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI14">
         <v>30.46</v>
@@ -2301,7 +2301,7 @@
         <v>14.24</v>
       </c>
       <c r="AM14">
-        <v>38.2021052631579</v>
+        <v>38.2</v>
       </c>
       <c r="AN14">
         <v>193.64</v>
@@ -2330,7 +2330,7 @@
         <v>447.24</v>
       </c>
       <c r="G15">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H15">
         <v>17.88</v>
@@ -2411,13 +2411,13 @@
         <v>28.1</v>
       </c>
       <c r="AH15">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI15">
         <v>26.06</v>
       </c>
       <c r="AJ15">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK15">
         <v>221.62</v>
@@ -2455,7 +2455,7 @@
         <v>476.56</v>
       </c>
       <c r="G16">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H16">
         <v>1.8</v>
@@ -2536,13 +2536,13 @@
         <v>45.73</v>
       </c>
       <c r="AH16">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI16">
         <v>15.51</v>
       </c>
       <c r="AJ16">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK16">
         <v>255.58</v>
@@ -2580,7 +2580,7 @@
         <v>500.29</v>
       </c>
       <c r="G17">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H17">
         <v>3.38</v>
@@ -2661,13 +2661,13 @@
         <v>51.35</v>
       </c>
       <c r="AH17">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI17">
         <v>21.26</v>
       </c>
       <c r="AJ17">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK17">
         <v>246.98</v>
@@ -2705,7 +2705,7 @@
         <v>559.42</v>
       </c>
       <c r="G18">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H18">
         <v>2.14</v>
@@ -2717,7 +2717,7 @@
         <v>19.75</v>
       </c>
       <c r="K18">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L18">
         <v>65.34999999999999</v>
@@ -2741,7 +2741,7 @@
         <v>30.41</v>
       </c>
       <c r="S18">
-        <v>5.8275</v>
+        <v>5.83</v>
       </c>
       <c r="T18">
         <v>126.13</v>
@@ -2786,13 +2786,13 @@
         <v>48.76</v>
       </c>
       <c r="AH18">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI18">
         <v>29.2</v>
       </c>
       <c r="AJ18">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK18">
         <v>251.45</v>
@@ -2830,7 +2830,7 @@
         <v>672.04</v>
       </c>
       <c r="G19">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H19">
         <v>6.2</v>
@@ -2878,7 +2878,7 @@
         <v>4.54</v>
       </c>
       <c r="W19">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X19">
         <v>15.84</v>
@@ -2911,13 +2911,13 @@
         <v>56.32</v>
       </c>
       <c r="AH19">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI19">
         <v>22.03</v>
       </c>
       <c r="AJ19">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK19">
         <v>294.34</v>
@@ -2955,7 +2955,7 @@
         <v>767.5</v>
       </c>
       <c r="G20">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H20">
         <v>6.18</v>
@@ -2967,7 +2967,7 @@
         <v>29.28</v>
       </c>
       <c r="K20">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L20">
         <v>58.26</v>
@@ -2991,7 +2991,7 @@
         <v>29.95</v>
       </c>
       <c r="S20">
-        <v>5.8275</v>
+        <v>5.83</v>
       </c>
       <c r="T20">
         <v>103.4</v>
@@ -3003,7 +3003,7 @@
         <v>7.28</v>
       </c>
       <c r="W20">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X20">
         <v>11.71</v>
@@ -3021,7 +3021,7 @@
         <v>57.46</v>
       </c>
       <c r="AC20">
-        <v>16.56736842105263</v>
+        <v>16.57</v>
       </c>
       <c r="AD20">
         <v>168.26</v>
@@ -3036,13 +3036,13 @@
         <v>43.79</v>
       </c>
       <c r="AH20">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI20">
         <v>54.36</v>
       </c>
       <c r="AJ20">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK20">
         <v>343.07</v>
@@ -3080,7 +3080,7 @@
         <v>829.89</v>
       </c>
       <c r="G21">
-        <v>2.204545454545455</v>
+        <v>2.2</v>
       </c>
       <c r="H21">
         <v>0.51</v>
@@ -3092,7 +3092,7 @@
         <v>31.27</v>
       </c>
       <c r="K21">
-        <v>20.96384615384616</v>
+        <v>20.96</v>
       </c>
       <c r="L21">
         <v>54.06</v>
@@ -3116,7 +3116,7 @@
         <v>29.7</v>
       </c>
       <c r="S21">
-        <v>5.8275</v>
+        <v>5.83</v>
       </c>
       <c r="T21">
         <v>97.86</v>
@@ -3128,7 +3128,7 @@
         <v>8.91</v>
       </c>
       <c r="W21">
-        <v>15.41090909090909</v>
+        <v>15.41</v>
       </c>
       <c r="X21">
         <v>56.06</v>
@@ -3161,13 +3161,13 @@
         <v>34.81</v>
       </c>
       <c r="AH21">
-        <v>0.8941666666666666</v>
+        <v>0.89</v>
       </c>
       <c r="AI21">
         <v>42.06</v>
       </c>
       <c r="AJ21">
-        <v>138.4276923076923</v>
+        <v>138.43</v>
       </c>
       <c r="AK21">
         <v>386.06</v>
